--- a/Matlab - Simulink/Tabla_Sweep_Jeq_beq.xlsx
+++ b/Matlab - Simulink/Tabla_Sweep_Jeq_beq.xlsx
@@ -13,7 +13,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>J_eq</t>
+  </si>
+  <si>
+    <t>b_eq</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Cero</t>
+  </si>
+  <si>
+    <t>wn_rad_s</t>
+  </si>
+  <si>
+    <t>zeta</t>
+  </si>
+  <si>
+    <t>J_eq</t>
+  </si>
+  <si>
+    <t>b_eq</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Cero</t>
+  </si>
+  <si>
+    <t>wn_rad_s</t>
+  </si>
+  <si>
+    <t>zeta</t>
+  </si>
+  <si>
+    <t>J_eq</t>
+  </si>
+  <si>
+    <t>b_eq</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Cero</t>
+  </si>
+  <si>
+    <t>wn_rad_s</t>
+  </si>
+  <si>
+    <t>zeta</t>
+  </si>
+  <si>
+    <t>J_eq</t>
+  </si>
+  <si>
+    <t>b_eq</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Cero</t>
+  </si>
+  <si>
+    <t>wn_rad_s</t>
+  </si>
+  <si>
+    <t>zeta</t>
+  </si>
   <si>
     <t>J_eq</t>
   </si>
@@ -97,28 +193,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">

--- a/Matlab - Simulink/Tabla_Sweep_Jeq_beq.xlsx
+++ b/Matlab - Simulink/Tabla_Sweep_Jeq_beq.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>J_eq</t>
+  </si>
+  <si>
+    <t>b_eq</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Cero</t>
+  </si>
+  <si>
+    <t>wn_rad_s</t>
+  </si>
+  <si>
+    <t>zeta</t>
+  </si>
   <si>
     <t>J_eq</t>
   </si>
@@ -193,28 +217,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
